--- a/Opencart/testData/Opencart_LoginData.xlsx
+++ b/Opencart/testData/Opencart_LoginData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="14">
   <si>
     <t>username</t>
   </si>
@@ -55,6 +55,9 @@
   </si>
   <si>
     <t>Invalid</t>
+  </si>
+  <si>
+    <t>rahul@12345</t>
   </si>
 </sst>
 </file>
@@ -536,8 +539,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -638,12 +641,102 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="13"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId2"/>
+    <hyperlink ref="A3" r:id="rId3"/>
+    <hyperlink ref="A4" r:id="rId4"/>
+    <hyperlink ref="A5" r:id="rId5"/>
+    <hyperlink ref="B5" r:id="rId6"/>
+    <hyperlink ref="A7" r:id="rId7"/>
+    <hyperlink ref="B7" r:id="rId8"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
